--- a/Data_preparation/datasets/final_data/UBER_TECHNOLOGIES_INC.xlsx
+++ b/Data_preparation/datasets/final_data/UBER_TECHNOLOGIES_INC.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="44">
   <si>
     <t>Ticker</t>
   </si>
@@ -146,87 +146,6 @@
   </si>
   <si>
     <t>USD</t>
-  </si>
-  <si>
-    <t>FTNT</t>
-  </si>
-  <si>
-    <t>TSM</t>
-  </si>
-  <si>
-    <t>VRNT</t>
-  </si>
-  <si>
-    <t>INTC</t>
-  </si>
-  <si>
-    <t>TRI</t>
-  </si>
-  <si>
-    <t>OKTA</t>
-  </si>
-  <si>
-    <t>SNAP</t>
-  </si>
-  <si>
-    <t>MCHP</t>
-  </si>
-  <si>
-    <t>DOCU</t>
-  </si>
-  <si>
-    <t>ZBRA</t>
-  </si>
-  <si>
-    <t>ZS</t>
-  </si>
-  <si>
-    <t>NFLX</t>
-  </si>
-  <si>
-    <t>CSCO</t>
-  </si>
-  <si>
-    <t>AAPL</t>
-  </si>
-  <si>
-    <t>STNE</t>
-  </si>
-  <si>
-    <t>CAN</t>
-  </si>
-  <si>
-    <t>TSLA</t>
-  </si>
-  <si>
-    <t>DXC</t>
-  </si>
-  <si>
-    <t>UI</t>
-  </si>
-  <si>
-    <t>INFA</t>
-  </si>
-  <si>
-    <t>STX</t>
-  </si>
-  <si>
-    <t>FICO</t>
-  </si>
-  <si>
-    <t>AMBA</t>
-  </si>
-  <si>
-    <t>PEGA</t>
-  </si>
-  <si>
-    <t>PATH</t>
-  </si>
-  <si>
-    <t>AMZN</t>
-  </si>
-  <si>
-    <t>NTAP</t>
   </si>
 </sst>
 </file>
@@ -733,22 +652,22 @@
         <v>43100</v>
       </c>
       <c r="D2">
-        <v>8.751999855041504</v>
+        <v>42</v>
       </c>
       <c r="E2">
-        <v>9.208000183105469</v>
+        <v>40.40999984741211</v>
       </c>
       <c r="F2">
-        <v>9.28600025177002</v>
+        <v>45</v>
       </c>
       <c r="G2">
-        <v>8.696000099182129</v>
+        <v>36.08000183105469</v>
       </c>
       <c r="H2">
-        <v>766266033</v>
+        <v>2085418676</v>
       </c>
       <c r="I2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K2">
         <v>-2780000000</v>
@@ -777,22 +696,22 @@
         <v>43190</v>
       </c>
       <c r="D3">
-        <v>35.97240561616163</v>
+        <v>42</v>
       </c>
       <c r="E3">
-        <v>31.91368293762207</v>
+        <v>40.40999984741211</v>
       </c>
       <c r="F3">
-        <v>36.75260893317965</v>
+        <v>45</v>
       </c>
       <c r="G3">
-        <v>31.53188151649943</v>
+        <v>36.08000183105469</v>
       </c>
       <c r="H3">
-        <v>5186523104</v>
+        <v>2085418676</v>
       </c>
       <c r="I3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="P3">
         <v>2584000000</v>
@@ -854,22 +773,22 @@
         <v>43281</v>
       </c>
       <c r="D4">
-        <v>22.36372947692871</v>
+        <v>42</v>
       </c>
       <c r="E4">
-        <v>22.87315368652344</v>
+        <v>40.40999984741211</v>
       </c>
       <c r="F4">
-        <v>25.01273536682129</v>
+        <v>45</v>
       </c>
       <c r="G4">
-        <v>22.00713157653809</v>
+        <v>36.08000183105469</v>
       </c>
       <c r="H4">
-        <v>60308678</v>
+        <v>2085418676</v>
       </c>
       <c r="I4" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="P4">
         <v>2768000000</v>
@@ -931,22 +850,22 @@
         <v>43373</v>
       </c>
       <c r="D5">
-        <v>40.01662959399956</v>
+        <v>42</v>
       </c>
       <c r="E5">
-        <v>40.09360122680664</v>
+        <v>40.40999984741211</v>
       </c>
       <c r="F5">
-        <v>42.52247987457982</v>
+        <v>45</v>
       </c>
       <c r="G5">
-        <v>36.22792094161961</v>
+        <v>36.08000183105469</v>
       </c>
       <c r="H5">
-        <v>4757218036</v>
+        <v>2085418676</v>
       </c>
       <c r="I5" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="P5">
         <v>2944000000</v>
@@ -1008,22 +927,22 @@
         <v>43465</v>
       </c>
       <c r="D6">
-        <v>42.82212632249508</v>
+        <v>42</v>
       </c>
       <c r="E6">
-        <v>46.75239944458008</v>
+        <v>40.40999984741211</v>
       </c>
       <c r="F6">
-        <v>46.95784665825049</v>
+        <v>45</v>
       </c>
       <c r="G6">
-        <v>41.83955640128374</v>
+        <v>36.08000183105469</v>
       </c>
       <c r="H6">
-        <v>450687724</v>
+        <v>2085418676</v>
       </c>
       <c r="I6" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="K6">
         <v>-1340000000</v>
@@ -1103,22 +1022,22 @@
         <v>43555</v>
       </c>
       <c r="D7">
-        <v>83.62000274658203</v>
+        <v>42</v>
       </c>
       <c r="E7">
-        <v>104.0299987792969</v>
+        <v>40.40999984741211</v>
       </c>
       <c r="F7">
-        <v>104.9800033569336</v>
+        <v>45</v>
       </c>
       <c r="G7">
-        <v>82.03099822998047</v>
+        <v>36.08000183105469</v>
       </c>
       <c r="H7">
-        <v>168459019</v>
+        <v>2085418676</v>
       </c>
       <c r="I7" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="K7">
         <v>660000000</v>
@@ -1201,22 +1120,22 @@
         <v>43646</v>
       </c>
       <c r="D8">
-        <v>14.72999954223633</v>
+        <v>46.97999954223633</v>
       </c>
       <c r="E8">
-        <v>16.79999923706055</v>
+        <v>42.13999938964844</v>
       </c>
       <c r="F8">
-        <v>18.36000061035156</v>
+        <v>47.04000091552734</v>
       </c>
       <c r="G8">
-        <v>13.96000003814697</v>
+        <v>41.84000015258789</v>
       </c>
       <c r="H8">
-        <v>1435682333</v>
+        <v>2085418676</v>
       </c>
       <c r="I8" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="J8">
         <v>78639736035</v>
@@ -1317,22 +1236,22 @@
         <v>43738</v>
       </c>
       <c r="D9">
-        <v>42.51583583355016</v>
+        <v>30.3700008392334</v>
       </c>
       <c r="E9">
-        <v>42.25590896606445</v>
+        <v>31.5</v>
       </c>
       <c r="F9">
-        <v>43.8557984628152</v>
+        <v>33.88999938964844</v>
       </c>
       <c r="G9">
-        <v>39.92553545962458</v>
+        <v>28.30999946594238</v>
       </c>
       <c r="H9">
-        <v>539679667</v>
+        <v>2085418676</v>
       </c>
       <c r="I9" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="J9">
         <v>51799109722</v>
@@ -1433,22 +1352,22 @@
         <v>43830</v>
       </c>
       <c r="D10">
-        <v>74.30999755859375</v>
+        <v>29.94000053405762</v>
       </c>
       <c r="E10">
-        <v>78.51000213623047</v>
+        <v>36.29000091552734</v>
       </c>
       <c r="F10">
-        <v>80.26000213623047</v>
+        <v>37.95000076293945</v>
       </c>
       <c r="G10">
-        <v>70.55000305175781</v>
+        <v>29.79000091552734</v>
       </c>
       <c r="H10">
-        <v>201104117</v>
+        <v>2085418676</v>
       </c>
       <c r="I10" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="J10">
         <v>50730940182</v>
@@ -1665,22 +1584,22 @@
         <v>44012</v>
       </c>
       <c r="D12">
-        <v>256.4700012207031</v>
+        <v>30.95999908447266</v>
       </c>
       <c r="E12">
-        <v>280.75</v>
+        <v>30.26000022888184</v>
       </c>
       <c r="F12">
-        <v>287.8299865722656</v>
+        <v>34.45999908447266</v>
       </c>
       <c r="G12">
-        <v>250.9499969482422</v>
+        <v>29.78499984741211</v>
       </c>
       <c r="H12">
-        <v>50845151</v>
+        <v>2085418676</v>
       </c>
       <c r="I12" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="J12">
         <v>53892325657</v>
@@ -1781,22 +1700,22 @@
         <v>44104</v>
       </c>
       <c r="D13">
-        <v>142.1999969482422</v>
+        <v>36.86000061035156</v>
       </c>
       <c r="E13">
-        <v>135.75</v>
+        <v>33.40999984741211</v>
       </c>
       <c r="F13">
-        <v>158.7359924316406</v>
+        <v>38.34999847412109</v>
       </c>
       <c r="G13">
-        <v>133.8099975585938</v>
+        <v>32.90000152587891</v>
       </c>
       <c r="H13">
-        <v>158300823</v>
+        <v>2085418676</v>
       </c>
       <c r="I13" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="J13">
         <v>63935669347</v>
@@ -1897,22 +1816,22 @@
         <v>44196</v>
       </c>
       <c r="D14">
-        <v>29.91399955749512</v>
+        <v>52.22000122070312</v>
       </c>
       <c r="E14">
-        <v>28.95000076293945</v>
+        <v>50.93000030517578</v>
       </c>
       <c r="F14">
-        <v>31.0620002746582</v>
+        <v>60.02999877929688</v>
       </c>
       <c r="G14">
-        <v>27.46199989318848</v>
+        <v>47.15000152587891</v>
       </c>
       <c r="H14">
-        <v>766266033</v>
+        <v>2085418676</v>
       </c>
       <c r="I14" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="J14">
         <v>89952172998</v>
@@ -2013,22 +1932,22 @@
         <v>44286</v>
       </c>
       <c r="D15">
-        <v>529.9299926757812</v>
+        <v>55.61000061035156</v>
       </c>
       <c r="E15">
-        <v>513.469970703125</v>
+        <v>54.77000045776367</v>
       </c>
       <c r="F15">
-        <v>563.5599975585938</v>
+        <v>61.5</v>
       </c>
       <c r="G15">
-        <v>499</v>
+        <v>53.11000061035156</v>
       </c>
       <c r="H15">
-        <v>424926346</v>
+        <v>2085418676</v>
       </c>
       <c r="I15" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="J15">
         <v>101288714731</v>
@@ -2129,22 +2048,22 @@
         <v>44377</v>
       </c>
       <c r="D16">
-        <v>46.47724219552952</v>
+        <v>50.88000106811523</v>
       </c>
       <c r="E16">
-        <v>48.50979995727539</v>
+        <v>43.45999908447266</v>
       </c>
       <c r="F16">
-        <v>48.75511095753174</v>
+        <v>52.02999877929688</v>
       </c>
       <c r="G16">
-        <v>45.85521015250949</v>
+        <v>43.34000015258789</v>
       </c>
       <c r="H16">
-        <v>3953196953</v>
+        <v>2085418676</v>
       </c>
       <c r="I16" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="J16">
         <v>93812614708</v>
@@ -2245,22 +2164,22 @@
         <v>44469</v>
       </c>
       <c r="D17">
-        <v>138.916410444292</v>
+        <v>45.91500091552734</v>
       </c>
       <c r="E17">
-        <v>146.6503143310547</v>
+        <v>43.81999969482422</v>
       </c>
       <c r="F17">
-        <v>149.9494520691154</v>
+        <v>48.88000106811523</v>
       </c>
       <c r="G17">
-        <v>135.3627448332334</v>
+        <v>43.56999969482422</v>
       </c>
       <c r="H17">
-        <v>14840390000</v>
+        <v>2085418676</v>
       </c>
       <c r="I17" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="J17">
         <v>84418739462</v>
@@ -2361,22 +2280,22 @@
         <v>44561</v>
       </c>
       <c r="D18">
-        <v>17.05999946594238</v>
+        <v>42.47999954223633</v>
       </c>
       <c r="E18">
-        <v>15.57999992370606</v>
+        <v>37.40000152587891</v>
       </c>
       <c r="F18">
-        <v>19.65999984741211</v>
+        <v>45.90000152587891</v>
       </c>
       <c r="G18">
-        <v>13.14000034332275</v>
+        <v>32.81000137329102</v>
       </c>
       <c r="H18">
-        <v>250599325</v>
+        <v>2085418676</v>
       </c>
       <c r="I18" t="s">
-        <v>58</v>
+        <v>42</v>
       </c>
       <c r="J18">
         <v>81349158139</v>
@@ -2477,22 +2396,22 @@
         <v>44651</v>
       </c>
       <c r="D19">
-        <v>151.2200012207031</v>
+        <v>35.68000030517578</v>
       </c>
       <c r="E19">
-        <v>119.3099975585938</v>
+        <v>31.47999954223633</v>
       </c>
       <c r="F19">
-        <v>161.6100006103516</v>
+        <v>36.93000030517578</v>
       </c>
       <c r="G19">
-        <v>118.879997253418</v>
+        <v>30.15999984741211</v>
       </c>
       <c r="H19">
-        <v>168459019</v>
+        <v>2085418676</v>
       </c>
       <c r="I19" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="J19">
         <v>69735278660</v>
@@ -2593,22 +2512,22 @@
         <v>44742</v>
       </c>
       <c r="D20">
-        <v>3.200000047683716</v>
+        <v>20.70000076293945</v>
       </c>
       <c r="E20">
-        <v>3.930000066757202</v>
+        <v>23.45000076293945</v>
       </c>
       <c r="F20">
-        <v>4.539999961853027</v>
+        <v>24.80999946594238</v>
       </c>
       <c r="G20">
-        <v>3.109999895095825</v>
+        <v>20.43000030517578</v>
       </c>
       <c r="H20">
-        <v>448228270</v>
+        <v>2085418676</v>
       </c>
       <c r="I20" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="J20">
         <v>40176488776</v>
@@ -2709,22 +2628,22 @@
         <v>44834</v>
       </c>
       <c r="D21">
-        <v>254.5</v>
+        <v>26.76000022888184</v>
       </c>
       <c r="E21">
-        <v>227.5399932861328</v>
+        <v>26.56999969482422</v>
       </c>
       <c r="F21">
-        <v>257.5</v>
+        <v>30.23999977111816</v>
       </c>
       <c r="G21">
-        <v>198.5899963378907</v>
+        <v>22.94000053405762</v>
       </c>
       <c r="H21">
-        <v>3325150886</v>
+        <v>2085418676</v>
       </c>
       <c r="I21" t="s">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="J21">
         <v>52467831611</v>
@@ -2825,22 +2744,22 @@
         <v>44926</v>
       </c>
       <c r="D22">
-        <v>26.71999931335449</v>
+        <v>25.3700008392334</v>
       </c>
       <c r="E22">
-        <v>28.72999954223633</v>
+        <v>30.93000030517578</v>
       </c>
       <c r="F22">
-        <v>29.72999954223633</v>
+        <v>31.20000076293945</v>
       </c>
       <c r="G22">
-        <v>26.64999961853028</v>
+        <v>25.02000045776367</v>
       </c>
       <c r="H22">
-        <v>178998669</v>
+        <v>2085418676</v>
       </c>
       <c r="I22" t="s">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="J22">
         <v>49321693518</v>
@@ -2953,22 +2872,22 @@
         <v>45016</v>
       </c>
       <c r="D23">
-        <v>261.1884929516806</v>
+        <v>31.5</v>
       </c>
       <c r="E23">
-        <v>225.4617156982422</v>
+        <v>31.04999923706055</v>
       </c>
       <c r="F23">
-        <v>262.5264343168398</v>
+        <v>32.93000030517578</v>
       </c>
       <c r="G23">
-        <v>223.9783523558658</v>
+        <v>29.21999931335449</v>
       </c>
       <c r="H23">
-        <v>60498713</v>
+        <v>2085418676</v>
       </c>
       <c r="I23" t="s">
-        <v>62</v>
+        <v>42</v>
       </c>
       <c r="J23">
         <v>63714057448</v>
@@ -3069,22 +2988,22 @@
         <v>45107</v>
       </c>
       <c r="D24">
-        <v>18.42000007629395</v>
+        <v>43.16999816894531</v>
       </c>
       <c r="E24">
-        <v>19.04000091552734</v>
+        <v>49.45999908447266</v>
       </c>
       <c r="F24">
-        <v>19.38999938964844</v>
+        <v>49.4900016784668</v>
       </c>
       <c r="G24">
-        <v>17.57999992370605</v>
+        <v>41.74599838256836</v>
       </c>
       <c r="H24">
-        <v>260676335</v>
+        <v>2085418676</v>
       </c>
       <c r="I24" t="s">
-        <v>63</v>
+        <v>42</v>
       </c>
       <c r="J24">
         <v>87368618584</v>
@@ -3185,22 +3104,22 @@
         <v>45199</v>
       </c>
       <c r="D25">
-        <v>62.6169871617784</v>
+        <v>45.56999969482422</v>
       </c>
       <c r="E25">
-        <v>64.67326354980469</v>
+        <v>43.27999877929688</v>
       </c>
       <c r="F25">
-        <v>66.63478202323152</v>
+        <v>47.27500152587891</v>
       </c>
       <c r="G25">
-        <v>60.75970456328059</v>
+        <v>40.09000015258789</v>
       </c>
       <c r="H25">
-        <v>212968277</v>
+        <v>2085418676</v>
       </c>
       <c r="I25" t="s">
-        <v>64</v>
+        <v>42</v>
       </c>
       <c r="J25">
         <v>93981606857</v>
@@ -3301,22 +3220,22 @@
         <v>45291</v>
       </c>
       <c r="D26">
-        <v>1152.400024414062</v>
+        <v>60.72999954223633</v>
       </c>
       <c r="E26">
-        <v>1198.829956054688</v>
+        <v>65.26999664306641</v>
       </c>
       <c r="F26">
-        <v>1307.140014648438</v>
+        <v>67.69000244140625</v>
       </c>
       <c r="G26">
-        <v>1113.18994140625</v>
+        <v>57.22000122070312</v>
       </c>
       <c r="H26">
-        <v>24003656</v>
+        <v>2085418676</v>
       </c>
       <c r="I26" t="s">
-        <v>65</v>
+        <v>42</v>
       </c>
       <c r="J26">
         <v>126702331221</v>
@@ -3429,22 +3348,22 @@
         <v>45382</v>
       </c>
       <c r="D27">
-        <v>104.6600036621094</v>
+        <v>77</v>
       </c>
       <c r="E27">
-        <v>92.98000335693359</v>
+        <v>66.26999664306641</v>
       </c>
       <c r="F27">
-        <v>105.0100021362305</v>
+        <v>78.84999847412109</v>
       </c>
       <c r="G27">
-        <v>90.66999816894533</v>
+        <v>66.06999969482422</v>
       </c>
       <c r="H27">
-        <v>168459019</v>
+        <v>2085418676</v>
       </c>
       <c r="I27" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="J27">
         <v>159869534826</v>
@@ -3545,22 +3464,22 @@
         <v>45473</v>
       </c>
       <c r="D28">
-        <v>53.97000122070312</v>
+        <v>72.19999694824219</v>
       </c>
       <c r="E28">
-        <v>52.63999938964844</v>
+        <v>64.47000122070312</v>
       </c>
       <c r="F28">
-        <v>65.87999725341797</v>
+        <v>75.40000152587891</v>
       </c>
       <c r="G28">
-        <v>50.29000091552734</v>
+        <v>62.61000061035156</v>
       </c>
       <c r="H28">
-        <v>42689006</v>
+        <v>2085418676</v>
       </c>
       <c r="I28" t="s">
-        <v>66</v>
+        <v>42</v>
       </c>
       <c r="J28">
         <v>151866343253</v>
@@ -3673,22 +3592,22 @@
         <v>45565</v>
       </c>
       <c r="D29">
-        <v>36.50313191135645</v>
+        <v>75.76999664306641</v>
       </c>
       <c r="E29">
-        <v>39.63111877441406</v>
+        <v>72.05000305175781</v>
       </c>
       <c r="F29">
-        <v>41.15769383693995</v>
+        <v>87</v>
       </c>
       <c r="G29">
-        <v>34.26814654717644</v>
+        <v>69.87000274658203</v>
       </c>
       <c r="H29">
-        <v>171080665</v>
+        <v>2085418676</v>
       </c>
       <c r="I29" t="s">
-        <v>67</v>
+        <v>42</v>
       </c>
       <c r="J29">
         <v>157906442132</v>
@@ -3801,22 +3720,22 @@
         <v>45657</v>
       </c>
       <c r="D30">
-        <v>12.96000003814697</v>
+        <v>62.18999862670898</v>
       </c>
       <c r="E30">
-        <v>14.22000026702881</v>
+        <v>66.84999847412109</v>
       </c>
       <c r="F30">
-        <v>15.34500026702881</v>
+        <v>69.67500305175781</v>
       </c>
       <c r="G30">
-        <v>12.61999988555908</v>
+        <v>61.31000137329102</v>
       </c>
       <c r="H30">
-        <v>453568899</v>
+        <v>2085418676</v>
       </c>
       <c r="I30" t="s">
-        <v>68</v>
+        <v>42</v>
       </c>
       <c r="J30">
         <v>127016386484</v>
@@ -3929,22 +3848,22 @@
         <v>45747</v>
       </c>
       <c r="D31">
-        <v>187.8600006103516</v>
+        <v>72.59999847412109</v>
       </c>
       <c r="E31">
-        <v>184.4199981689453</v>
+        <v>81.01000213623047</v>
       </c>
       <c r="F31">
-        <v>198.3399963378907</v>
+        <v>81.21900177001953</v>
       </c>
       <c r="G31">
-        <v>161.3800048828125</v>
+        <v>60.63000106811523</v>
       </c>
       <c r="H31">
-        <v>10664912097</v>
+        <v>2085418676</v>
       </c>
       <c r="I31" t="s">
-        <v>69</v>
+        <v>42</v>
       </c>
       <c r="J31">
         <v>152205185904</v>
@@ -4045,22 +3964,22 @@
         <v>45838</v>
       </c>
       <c r="D32">
-        <v>105.0804770925983</v>
+        <v>92.84999847412109</v>
       </c>
       <c r="E32">
-        <v>103.1780242919922</v>
+        <v>87.75</v>
       </c>
       <c r="F32">
-        <v>109.3114367486601</v>
+        <v>97.71499633789062</v>
       </c>
       <c r="G32">
-        <v>101.4440230697358</v>
+        <v>86.36000061035156</v>
       </c>
       <c r="H32">
-        <v>199618386</v>
+        <v>2085418676</v>
       </c>
       <c r="I32" t="s">
-        <v>70</v>
+        <v>42</v>
       </c>
       <c r="J32">
         <v>195105983543</v>
